--- a/finalproject_datavisualisation/www/resources/cpidata.xlsx
+++ b/finalproject_datavisualisation/www/resources/cpidata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d08616bd98977c4/Documents/NM2207/web/finalproject_datavisualisation/www/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d08616bd98977c4/Documents/NM2207/web/github/finalproject_datavisualisation/www/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{88442A37-05ED-4702-9DB2-51C8C3CD5CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79DF686D-771A-4F3D-AE61-9D872E508098}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{88442A37-05ED-4702-9DB2-51C8C3CD5CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CE622DD-E5FF-459F-9F55-C13B7EF44986}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E49261C6-98E9-4CBB-998F-692ACD976540}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{E49261C6-98E9-4CBB-998F-692ACD976540}"/>
   </bookViews>
   <sheets>
     <sheet name="Extracted from T8" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Variables</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">        Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Food Excl Food Serving Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Food Serving Services</t>
   </si>
   <si>
     <t xml:space="preserve">        Clothing &amp; Footwear</t>
@@ -485,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7520851-3079-45FB-9E7C-42D9904C2CAE}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I13" sqref="B13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,528 +490,380 @@
     <col min="1" max="1" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C1" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D1" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E1" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F1" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G1" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H1" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="I1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K1" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>2.4</v>
+        <v>-0.5</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="D2" s="3">
-        <v>-0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E2" s="3">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F2" s="3">
         <v>0.6</v>
       </c>
       <c r="G2" s="3">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="H2" s="3">
-        <v>0.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I2" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K2" s="3">
         <v>6.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="C3" s="3">
         <v>2.1</v>
       </c>
-      <c r="C3" s="3">
-        <v>2.9</v>
-      </c>
       <c r="D3" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.9</v>
       </c>
-      <c r="E3" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>1.4</v>
       </c>
-      <c r="G3" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1.5</v>
-      </c>
       <c r="I3" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="K3" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>2.2999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="3">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="3">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="F4" s="3">
-        <v>1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="G4" s="3">
-        <v>1.3</v>
+        <v>-3.8</v>
       </c>
       <c r="H4" s="3">
-        <v>1.1000000000000001</v>
+        <v>-5.5</v>
       </c>
       <c r="I4" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="K4" s="3">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>-3.5</v>
       </c>
       <c r="C5" s="3">
-        <v>2.9</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="D5" s="3">
-        <v>2.2999999999999998</v>
+        <v>-2.5</v>
       </c>
       <c r="E5" s="3">
-        <v>1.9</v>
+        <v>-1.3</v>
       </c>
       <c r="F5" s="3">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="3">
-        <v>1.5</v>
+        <v>-0.3</v>
       </c>
       <c r="H5" s="3">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="I5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
+        <v>-0.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.3</v>
       </c>
-      <c r="C6" s="3">
-        <v>-0.8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.4</v>
-      </c>
       <c r="H6" s="3">
-        <v>-0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="3">
-        <v>-3.8</v>
-      </c>
-      <c r="J6" s="3">
-        <v>-5.5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>2.8</v>
+        <v>-0.1</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>-3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E7" s="3">
-        <v>-4.0999999999999996</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
-        <v>-2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G7" s="3">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="H7" s="3">
-        <v>-1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I7" s="3">
-        <v>-0.3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="K7" s="3">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>4.9000000000000004</v>
+        <v>-1.4</v>
       </c>
       <c r="C8" s="3">
-        <v>1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="D8" s="3">
-        <v>-0.6</v>
+        <v>2.6</v>
       </c>
       <c r="E8" s="3">
-        <v>1.8</v>
+        <v>-0.5</v>
       </c>
       <c r="F8" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="3">
-        <v>0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="H8" s="3">
-        <v>0.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="C9" s="3">
-        <v>2.8</v>
+        <v>-0.4</v>
       </c>
       <c r="D9" s="3">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="E9" s="3">
-        <v>1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="3">
-        <v>2.5</v>
+        <v>-0.9</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H9" s="3">
-        <v>1.1000000000000001</v>
+        <v>-0.6</v>
       </c>
       <c r="I9" s="3">
-        <v>-1.5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>2.2999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="C10" s="3">
-        <v>-1.2</v>
+        <v>0.9</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.4</v>
+        <v>0.3</v>
       </c>
       <c r="E10" s="3">
-        <v>-2.4</v>
+        <v>1.2</v>
       </c>
       <c r="F10" s="3">
-        <v>2.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G10" s="3">
-        <v>-0.5</v>
+        <v>-1.8</v>
       </c>
       <c r="H10" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>-0.7</v>
-      </c>
-      <c r="J10" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K10" s="3">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>-1.4</v>
+        <v>3.4</v>
       </c>
       <c r="C11" s="3">
-        <v>-0.2</v>
+        <v>3.1</v>
       </c>
       <c r="D11" s="3">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>-0.4</v>
+        <v>2.9</v>
       </c>
       <c r="F11" s="3">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="G11" s="3">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.9</v>
+        <v>1.3</v>
       </c>
       <c r="I11" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-0.6</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C12" s="3">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="3">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="E12" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.9</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.3</v>
-      </c>
       <c r="G12" s="3">
-        <v>1.2</v>
+        <v>-0.3</v>
       </c>
       <c r="H12" s="3">
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="I12" s="3">
-        <v>-1.8</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>3.8</v>
+        <v>0.1</v>
       </c>
       <c r="C13" s="3">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="3">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="E13" s="3">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="3">
-        <v>2.9</v>
+        <v>-0.3</v>
       </c>
       <c r="H13" s="3">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I13" s="3">
-        <v>-0.6</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-0.3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-0.3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K15" s="3">
         <v>6.6</v>
       </c>
     </row>
